--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278208</v>
+        <v>278209</v>
       </c>
       <c r="D10" t="n">
         <v>29589</v>
       </c>
       <c r="E10" t="n">
-        <v>1752506424</v>
+        <v>1752512170</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -3444,13 +3444,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>27991</v>
+        <v>27992</v>
       </c>
       <c r="D74" t="n">
         <v>6640</v>
       </c>
       <c r="E74" t="n">
-        <v>54751854</v>
+        <v>54752531</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9838</v>
+        <v>9839</v>
       </c>
       <c r="D100" t="n">
         <v>1937</v>
       </c>
       <c r="E100" t="n">
-        <v>24690409</v>
+        <v>24692472</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5207,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19729</v>
+        <v>19731</v>
       </c>
       <c r="D117" t="n">
         <v>2228</v>
       </c>
       <c r="E117" t="n">
-        <v>56645610</v>
+        <v>56664962</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285090</v>
+        <v>285091</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1212910725</v>
+        <v>1212921927</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562660</v>
+        <v>562664</v>
       </c>
       <c r="D169" t="n">
         <v>60959</v>
       </c>
       <c r="E169" t="n">
-        <v>1286041388</v>
+        <v>1286053236</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367530</v>
+        <v>367533</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2847681622</v>
+        <v>2847702736</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115212</v>
+        <v>115215</v>
       </c>
       <c r="D171" t="n">
         <v>20265</v>
       </c>
       <c r="E171" t="n">
-        <v>448584472</v>
+        <v>448609800</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54395</v>
+        <v>54396</v>
       </c>
       <c r="D173" t="n">
         <v>11602</v>
       </c>
       <c r="E173" t="n">
-        <v>151938108</v>
+        <v>151948108</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357340</v>
+        <v>357347</v>
       </c>
       <c r="D174" t="n">
         <v>69791</v>
       </c>
       <c r="E174" t="n">
-        <v>1019801333</v>
+        <v>1019905253</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125675</v>
+        <v>125678</v>
       </c>
       <c r="D175" t="n">
         <v>18139</v>
       </c>
       <c r="E175" t="n">
-        <v>815000463</v>
+        <v>815152093</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96776</v>
+        <v>96778</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174805356</v>
+        <v>174811932</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235781</v>
+        <v>235782</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813284204</v>
+        <v>813286352</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141517</v>
+        <v>141523</v>
       </c>
       <c r="D180" t="n">
         <v>28891</v>
       </c>
       <c r="E180" t="n">
-        <v>341194925</v>
+        <v>341217178</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>19711</v>
+        <v>19712</v>
       </c>
       <c r="D188" t="n">
         <v>2625</v>
       </c>
       <c r="E188" t="n">
-        <v>66197569</v>
+        <v>66204904</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -10865,13 +10865,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>141369</v>
+        <v>141370</v>
       </c>
       <c r="D255" t="n">
         <v>32125</v>
       </c>
       <c r="E255" t="n">
-        <v>414380806</v>
+        <v>414531469</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -11890,13 +11890,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>95352</v>
+        <v>95353</v>
       </c>
       <c r="D280" t="n">
         <v>19778</v>
       </c>
       <c r="E280" t="n">
-        <v>282542411</v>
+        <v>282552411</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -12136,13 +12136,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>90608</v>
+        <v>90609</v>
       </c>
       <c r="D286" t="n">
         <v>20300</v>
       </c>
       <c r="E286" t="n">
-        <v>162786879</v>
+        <v>162838526</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13243,13 +13243,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>220661</v>
+        <v>220662</v>
       </c>
       <c r="D313" t="n">
         <v>23419</v>
       </c>
       <c r="E313" t="n">
-        <v>1371187188</v>
+        <v>1371202181</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13612,13 +13612,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>81163</v>
+        <v>81164</v>
       </c>
       <c r="D322" t="n">
         <v>9703</v>
       </c>
       <c r="E322" t="n">
-        <v>254547631</v>
+        <v>254557631</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>108923</v>
+        <v>108924</v>
       </c>
       <c r="D19" t="n">
         <v>13558</v>
       </c>
       <c r="E19" t="n">
-        <v>344735004</v>
+        <v>344735121</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>101536</v>
+        <v>101541</v>
       </c>
       <c r="D167" t="n">
         <v>32176</v>
       </c>
       <c r="E167" t="n">
-        <v>195171480</v>
+        <v>195182764</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285091</v>
+        <v>285103</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1212921927</v>
+        <v>1213411974</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562664</v>
+        <v>562668</v>
       </c>
       <c r="D169" t="n">
         <v>60959</v>
       </c>
       <c r="E169" t="n">
-        <v>1286053236</v>
+        <v>1286069153</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367533</v>
+        <v>367547</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2847702736</v>
+        <v>2847843914</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115215</v>
+        <v>115217</v>
       </c>
       <c r="D171" t="n">
         <v>20265</v>
       </c>
       <c r="E171" t="n">
-        <v>448609800</v>
+        <v>448622098</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357347</v>
+        <v>357351</v>
       </c>
       <c r="D174" t="n">
         <v>69791</v>
       </c>
       <c r="E174" t="n">
-        <v>1019905253</v>
+        <v>1019920315</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125678</v>
+        <v>125681</v>
       </c>
       <c r="D175" t="n">
         <v>18139</v>
       </c>
       <c r="E175" t="n">
-        <v>815152093</v>
+        <v>815557425</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96778</v>
+        <v>96779</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174811932</v>
+        <v>174813580</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235782</v>
+        <v>235787</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813286352</v>
+        <v>813327809</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141523</v>
+        <v>141526</v>
       </c>
       <c r="D180" t="n">
         <v>28891</v>
       </c>
       <c r="E180" t="n">
-        <v>341217178</v>
+        <v>341222629</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -11726,13 +11726,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>216632</v>
+        <v>216633</v>
       </c>
       <c r="D276" t="n">
         <v>23464</v>
       </c>
       <c r="E276" t="n">
-        <v>1209907808</v>
+        <v>1209908515</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -12710,13 +12710,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>15789</v>
+        <v>15790</v>
       </c>
       <c r="D300" t="n">
         <v>3358</v>
       </c>
       <c r="E300" t="n">
-        <v>78305572</v>
+        <v>78331113</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -12833,13 +12833,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>40034</v>
+        <v>40038</v>
       </c>
       <c r="D303" t="n">
         <v>5226</v>
       </c>
       <c r="E303" t="n">
-        <v>131806136</v>
+        <v>131823924</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>181365</v>
+        <v>181367</v>
       </c>
       <c r="D8" t="n">
         <v>40104</v>
       </c>
       <c r="E8" t="n">
-        <v>652816865</v>
+        <v>652924851</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>61058</v>
+        <v>61059</v>
       </c>
       <c r="D65" t="n">
         <v>6617</v>
       </c>
       <c r="E65" t="n">
-        <v>334115122</v>
+        <v>334116236</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3485,13 +3485,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5310</v>
+        <v>5311</v>
       </c>
       <c r="D75" t="n">
         <v>1139</v>
       </c>
       <c r="E75" t="n">
-        <v>10834434</v>
+        <v>10839314</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285103</v>
+        <v>285108</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1213411974</v>
+        <v>1213459897</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562668</v>
+        <v>562670</v>
       </c>
       <c r="D169" t="n">
         <v>60959</v>
       </c>
       <c r="E169" t="n">
-        <v>1286069153</v>
+        <v>1286077701</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367547</v>
+        <v>367551</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2847843914</v>
+        <v>2847885772</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115217</v>
+        <v>115219</v>
       </c>
       <c r="D171" t="n">
         <v>20265</v>
       </c>
       <c r="E171" t="n">
-        <v>448622098</v>
+        <v>448634540</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357351</v>
+        <v>357361</v>
       </c>
       <c r="D174" t="n">
         <v>69791</v>
       </c>
       <c r="E174" t="n">
-        <v>1019920315</v>
+        <v>1019950566</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96779</v>
+        <v>96780</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174813580</v>
+        <v>174813912</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235787</v>
+        <v>235792</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813327809</v>
+        <v>813359864</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141526</v>
+        <v>141527</v>
       </c>
       <c r="D180" t="n">
         <v>28891</v>
       </c>
       <c r="E180" t="n">
-        <v>341222629</v>
+        <v>341232629</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8815,13 +8815,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>11131</v>
+        <v>11134</v>
       </c>
       <c r="D205" t="n">
         <v>1314</v>
       </c>
       <c r="E205" t="n">
-        <v>44392226</v>
+        <v>44546213</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46788</v>
+        <v>46789</v>
       </c>
       <c r="D4" t="n">
         <v>11517</v>
       </c>
       <c r="E4" t="n">
-        <v>126075851</v>
+        <v>126189040</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>181367</v>
+        <v>181369</v>
       </c>
       <c r="D8" t="n">
         <v>40104</v>
       </c>
       <c r="E8" t="n">
-        <v>652924851</v>
+        <v>653049910</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17559</v>
+        <v>17560</v>
       </c>
       <c r="D115" t="n">
         <v>3338</v>
       </c>
       <c r="E115" t="n">
-        <v>38636494</v>
+        <v>38644994</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>126052</v>
+        <v>126053</v>
       </c>
       <c r="D152" t="n">
         <v>13497</v>
       </c>
       <c r="E152" t="n">
-        <v>716082530</v>
+        <v>716083919</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>50584</v>
+        <v>50585</v>
       </c>
       <c r="D164" t="n">
         <v>11057</v>
       </c>
       <c r="E164" t="n">
-        <v>168939636</v>
+        <v>168943069</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285108</v>
+        <v>285114</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1213459897</v>
+        <v>1213524897</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562670</v>
+        <v>562672</v>
       </c>
       <c r="D169" t="n">
         <v>60959</v>
       </c>
       <c r="E169" t="n">
-        <v>1286077701</v>
+        <v>1286084501</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367551</v>
+        <v>367559</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2847885772</v>
+        <v>2848069929</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115219</v>
+        <v>115224</v>
       </c>
       <c r="D171" t="n">
         <v>20265</v>
       </c>
       <c r="E171" t="n">
-        <v>448634540</v>
+        <v>448839617</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357361</v>
+        <v>357363</v>
       </c>
       <c r="D174" t="n">
         <v>69791</v>
       </c>
       <c r="E174" t="n">
-        <v>1019950566</v>
+        <v>1019961276</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125681</v>
+        <v>125687</v>
       </c>
       <c r="D175" t="n">
         <v>18139</v>
       </c>
       <c r="E175" t="n">
-        <v>815557425</v>
+        <v>815654401</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235792</v>
+        <v>235796</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813359864</v>
+        <v>813626581</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141527</v>
+        <v>141529</v>
       </c>
       <c r="D180" t="n">
         <v>28891</v>
       </c>
       <c r="E180" t="n">
-        <v>341232629</v>
+        <v>341235629</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -9430,13 +9430,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4713</v>
+        <v>4714</v>
       </c>
       <c r="D220" t="n">
         <v>522</v>
       </c>
       <c r="E220" t="n">
-        <v>11824889</v>
+        <v>11992288</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>58308</v>
+        <v>58310</v>
       </c>
       <c r="D237" t="n">
         <v>13472</v>
       </c>
       <c r="E237" t="n">
-        <v>172540972</v>
+        <v>172543972</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10209,13 +10209,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>84900</v>
+        <v>84901</v>
       </c>
       <c r="D239" t="n">
         <v>9400</v>
       </c>
       <c r="E239" t="n">
-        <v>500324669</v>
+        <v>500391684</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -10865,13 +10865,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>141370</v>
+        <v>141372</v>
       </c>
       <c r="D255" t="n">
         <v>32125</v>
       </c>
       <c r="E255" t="n">
-        <v>414531469</v>
+        <v>414550820</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -12833,13 +12833,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>40038</v>
+        <v>40039</v>
       </c>
       <c r="D303" t="n">
         <v>5226</v>
       </c>
       <c r="E303" t="n">
-        <v>131823924</v>
+        <v>131830133</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69577</v>
+        <v>69578</v>
       </c>
       <c r="D9" t="n">
         <v>10018</v>
       </c>
       <c r="E9" t="n">
-        <v>191527027</v>
+        <v>191682734</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>57548</v>
+        <v>57549</v>
       </c>
       <c r="D15" t="n">
         <v>11395</v>
       </c>
       <c r="E15" t="n">
-        <v>238159664</v>
+        <v>238162864</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -2296,13 +2296,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>55750</v>
+        <v>55752</v>
       </c>
       <c r="D46" t="n">
         <v>13294</v>
       </c>
       <c r="E46" t="n">
-        <v>174085606</v>
+        <v>174093404</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>10842</v>
+        <v>10843</v>
       </c>
       <c r="D70" t="n">
         <v>2313</v>
       </c>
       <c r="E70" t="n">
-        <v>37609618</v>
+        <v>37621871</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -5207,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19731</v>
+        <v>19732</v>
       </c>
       <c r="D117" t="n">
         <v>2228</v>
       </c>
       <c r="E117" t="n">
-        <v>56664962</v>
+        <v>56667618</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285114</v>
+        <v>285120</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1213524897</v>
+        <v>1213662244</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367559</v>
+        <v>367572</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2848069929</v>
+        <v>2848183112</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115224</v>
+        <v>115227</v>
       </c>
       <c r="D171" t="n">
         <v>20265</v>
       </c>
       <c r="E171" t="n">
-        <v>448839617</v>
+        <v>448912934</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357363</v>
+        <v>357373</v>
       </c>
       <c r="D174" t="n">
         <v>69791</v>
       </c>
       <c r="E174" t="n">
-        <v>1019961276</v>
+        <v>1020004006</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125687</v>
+        <v>125692</v>
       </c>
       <c r="D175" t="n">
         <v>18139</v>
       </c>
       <c r="E175" t="n">
-        <v>815654401</v>
+        <v>815698201</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>75367</v>
+        <v>75370</v>
       </c>
       <c r="D178" t="n">
         <v>28756</v>
       </c>
       <c r="E178" t="n">
-        <v>102782703</v>
+        <v>102786543</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235796</v>
+        <v>235803</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813626581</v>
+        <v>813674902</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141529</v>
+        <v>141531</v>
       </c>
       <c r="D180" t="n">
         <v>28891</v>
       </c>
       <c r="E180" t="n">
-        <v>341235629</v>
+        <v>341241854</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3637</v>
+        <v>3639</v>
       </c>
       <c r="D213" t="n">
         <v>402</v>
       </c>
       <c r="E213" t="n">
-        <v>11293707</v>
+        <v>11320543</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -11767,13 +11767,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>19090</v>
+        <v>19091</v>
       </c>
       <c r="D277" t="n">
         <v>3690</v>
       </c>
       <c r="E277" t="n">
-        <v>42529051</v>
+        <v>42542549</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -12423,13 +12423,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>61666</v>
+        <v>61672</v>
       </c>
       <c r="D293" t="n">
         <v>14543</v>
       </c>
       <c r="E293" t="n">
-        <v>194877211</v>
+        <v>194886211</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -13243,13 +13243,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>220662</v>
+        <v>220664</v>
       </c>
       <c r="D313" t="n">
         <v>23419</v>
       </c>
       <c r="E313" t="n">
-        <v>1371202181</v>
+        <v>1371206867</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13448,13 +13448,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>58822</v>
+        <v>58823</v>
       </c>
       <c r="D318" t="n">
         <v>10930</v>
       </c>
       <c r="E318" t="n">
-        <v>225832549</v>
+        <v>225842549</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>181369</v>
+        <v>181370</v>
       </c>
       <c r="D8" t="n">
         <v>40104</v>
       </c>
       <c r="E8" t="n">
-        <v>653049910</v>
+        <v>653248410</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278209</v>
+        <v>278210</v>
       </c>
       <c r="D10" t="n">
         <v>29589</v>
       </c>
       <c r="E10" t="n">
-        <v>1752512170</v>
+        <v>1752513740</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>108924</v>
+        <v>108926</v>
       </c>
       <c r="D19" t="n">
         <v>13558</v>
       </c>
       <c r="E19" t="n">
-        <v>344735121</v>
+        <v>344804726</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>98508</v>
+        <v>98510</v>
       </c>
       <c r="D97" t="n">
         <v>22696</v>
       </c>
       <c r="E97" t="n">
-        <v>307115902</v>
+        <v>307118902</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>126053</v>
+        <v>126054</v>
       </c>
       <c r="D152" t="n">
         <v>13497</v>
       </c>
       <c r="E152" t="n">
-        <v>716083919</v>
+        <v>716092217</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>50585</v>
+        <v>50586</v>
       </c>
       <c r="D164" t="n">
         <v>11057</v>
       </c>
       <c r="E164" t="n">
-        <v>168943069</v>
+        <v>168946548</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285120</v>
+        <v>285122</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1213662244</v>
+        <v>1213790875</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562672</v>
+        <v>562673</v>
       </c>
       <c r="D169" t="n">
         <v>60959</v>
       </c>
       <c r="E169" t="n">
-        <v>1286084501</v>
+        <v>1286266968</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367572</v>
+        <v>367577</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2848183112</v>
+        <v>2848223671</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115227</v>
+        <v>115230</v>
       </c>
       <c r="D171" t="n">
         <v>20265</v>
       </c>
       <c r="E171" t="n">
-        <v>448912934</v>
+        <v>449025067</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357373</v>
+        <v>357382</v>
       </c>
       <c r="D174" t="n">
         <v>69791</v>
       </c>
       <c r="E174" t="n">
-        <v>1020004006</v>
+        <v>1020222665</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125692</v>
+        <v>125700</v>
       </c>
       <c r="D175" t="n">
         <v>18139</v>
       </c>
       <c r="E175" t="n">
-        <v>815698201</v>
+        <v>815905290</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235803</v>
+        <v>235806</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813674902</v>
+        <v>813703438</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141531</v>
+        <v>141532</v>
       </c>
       <c r="D180" t="n">
         <v>28891</v>
       </c>
       <c r="E180" t="n">
-        <v>341241854</v>
+        <v>341248758</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -11849,13 +11849,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>28967</v>
+        <v>28968</v>
       </c>
       <c r="D279" t="n">
         <v>6571</v>
       </c>
       <c r="E279" t="n">
-        <v>57088942</v>
+        <v>57089102</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -12423,13 +12423,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>61672</v>
+        <v>61673</v>
       </c>
       <c r="D293" t="n">
         <v>14543</v>
       </c>
       <c r="E293" t="n">
-        <v>194886211</v>
+        <v>194903805</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278210</v>
+        <v>278212</v>
       </c>
       <c r="D10" t="n">
         <v>29589</v>
       </c>
       <c r="E10" t="n">
-        <v>1752513740</v>
+        <v>1752587166</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>134748</v>
+        <v>134752</v>
       </c>
       <c r="D17" t="n">
         <v>19602</v>
       </c>
       <c r="E17" t="n">
-        <v>296807396</v>
+        <v>296818316</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>108357</v>
+        <v>108361</v>
       </c>
       <c r="D20" t="n">
         <v>24273</v>
       </c>
       <c r="E20" t="n">
-        <v>225646414</v>
+        <v>225648230</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2050,13 +2050,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6276</v>
+        <v>6277</v>
       </c>
       <c r="D40" t="n">
         <v>1868</v>
       </c>
       <c r="E40" t="n">
-        <v>16647832</v>
+        <v>16656332</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>27222</v>
+        <v>27223</v>
       </c>
       <c r="D106" t="n">
         <v>4748</v>
       </c>
       <c r="E106" t="n">
-        <v>49663831</v>
+        <v>49665282</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285122</v>
+        <v>285125</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1213790875</v>
+        <v>1213841326</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367577</v>
+        <v>367593</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2848223671</v>
+        <v>2848392045</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357382</v>
+        <v>357386</v>
       </c>
       <c r="D174" t="n">
         <v>69791</v>
       </c>
       <c r="E174" t="n">
-        <v>1020222665</v>
+        <v>1020228989</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125700</v>
+        <v>125702</v>
       </c>
       <c r="D175" t="n">
         <v>18139</v>
       </c>
       <c r="E175" t="n">
-        <v>815905290</v>
+        <v>815959814</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96780</v>
+        <v>96784</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174813912</v>
+        <v>174817750</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235806</v>
+        <v>235811</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813703438</v>
+        <v>813736072</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -10619,13 +10619,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>37152</v>
+        <v>37153</v>
       </c>
       <c r="D249" t="n">
         <v>9218</v>
       </c>
       <c r="E249" t="n">
-        <v>148733347</v>
+        <v>148750799</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -11357,13 +11357,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>84979</v>
+        <v>84980</v>
       </c>
       <c r="D267" t="n">
         <v>20049</v>
       </c>
       <c r="E267" t="n">
-        <v>156523842</v>
+        <v>156525342</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -13161,13 +13161,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>190861</v>
+        <v>190862</v>
       </c>
       <c r="D311" t="n">
         <v>37720</v>
       </c>
       <c r="E311" t="n">
-        <v>586687716</v>
+        <v>586689216</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69578</v>
+        <v>69579</v>
       </c>
       <c r="D9" t="n">
         <v>10018</v>
       </c>
       <c r="E9" t="n">
-        <v>191682734</v>
+        <v>191683877</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278212</v>
+        <v>278214</v>
       </c>
       <c r="D10" t="n">
         <v>29589</v>
       </c>
       <c r="E10" t="n">
-        <v>1752587166</v>
+        <v>1752681420</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>134752</v>
+        <v>134754</v>
       </c>
       <c r="D17" t="n">
         <v>19602</v>
       </c>
       <c r="E17" t="n">
-        <v>296818316</v>
+        <v>296820206</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1968,13 +1968,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>27072</v>
+        <v>27073</v>
       </c>
       <c r="D38" t="n">
         <v>3288</v>
       </c>
       <c r="E38" t="n">
-        <v>83538660</v>
+        <v>83546230</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17836</v>
+        <v>17837</v>
       </c>
       <c r="D54" t="n">
         <v>3156</v>
       </c>
       <c r="E54" t="n">
-        <v>32095287</v>
+        <v>32098865</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3239,13 +3239,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>20736</v>
+        <v>20737</v>
       </c>
       <c r="D69" t="n">
         <v>4496</v>
       </c>
       <c r="E69" t="n">
-        <v>62171544</v>
+        <v>62181544</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4469,13 +4469,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>136580</v>
+        <v>136581</v>
       </c>
       <c r="D99" t="n">
         <v>14096</v>
       </c>
       <c r="E99" t="n">
-        <v>863232580</v>
+        <v>863240545</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5576,13 +5576,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5646</v>
+        <v>5647</v>
       </c>
       <c r="D126" t="n">
         <v>1176</v>
       </c>
       <c r="E126" t="n">
-        <v>8180829</v>
+        <v>8181370</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562673</v>
+        <v>562674</v>
       </c>
       <c r="D169" t="n">
         <v>60959</v>
       </c>
       <c r="E169" t="n">
-        <v>1286266968</v>
+        <v>1286269320</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367593</v>
+        <v>367599</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2848392045</v>
+        <v>2848423734</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357386</v>
+        <v>357393</v>
       </c>
       <c r="D174" t="n">
         <v>69791</v>
       </c>
       <c r="E174" t="n">
-        <v>1020228989</v>
+        <v>1020291034</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125702</v>
+        <v>125703</v>
       </c>
       <c r="D175" t="n">
         <v>18139</v>
       </c>
       <c r="E175" t="n">
-        <v>815959814</v>
+        <v>815960902</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235811</v>
+        <v>235816</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813736072</v>
+        <v>813759583</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>13106</v>
+        <v>13108</v>
       </c>
       <c r="D203" t="n">
         <v>2290</v>
       </c>
       <c r="E203" t="n">
-        <v>33021580</v>
+        <v>33026608</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8815,13 +8815,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>11134</v>
+        <v>11135</v>
       </c>
       <c r="D205" t="n">
         <v>1314</v>
       </c>
       <c r="E205" t="n">
-        <v>44546213</v>
+        <v>44608881</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -10373,13 +10373,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>28200</v>
+        <v>28204</v>
       </c>
       <c r="D243" t="n">
         <v>5942</v>
       </c>
       <c r="E243" t="n">
-        <v>90583636</v>
+        <v>90602697</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -10947,13 +10947,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>182553</v>
+        <v>182554</v>
       </c>
       <c r="D257" t="n">
         <v>20359</v>
       </c>
       <c r="E257" t="n">
-        <v>1063839900</v>
+        <v>1063849900</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -11152,13 +11152,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>38986</v>
+        <v>38988</v>
       </c>
       <c r="D262" t="n">
         <v>8167</v>
       </c>
       <c r="E262" t="n">
-        <v>124743959</v>
+        <v>124760356</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -11316,13 +11316,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>71666</v>
+        <v>71667</v>
       </c>
       <c r="D266" t="n">
         <v>9133</v>
       </c>
       <c r="E266" t="n">
-        <v>219447533</v>
+        <v>219458739</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -13161,13 +13161,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>190862</v>
+        <v>190864</v>
       </c>
       <c r="D311" t="n">
         <v>37720</v>
       </c>
       <c r="E311" t="n">
-        <v>586689216</v>
+        <v>586829007</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -13653,13 +13653,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>94725</v>
+        <v>94726</v>
       </c>
       <c r="D323" t="n">
         <v>19883</v>
       </c>
       <c r="E323" t="n">
-        <v>178834629</v>
+        <v>178876673</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>22093</v>
+        <v>22094</v>
       </c>
       <c r="D104" t="n">
         <v>4584</v>
       </c>
       <c r="E104" t="n">
-        <v>84782711</v>
+        <v>84784211</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7052,13 +7052,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>62071</v>
+        <v>62075</v>
       </c>
       <c r="D162" t="n">
         <v>14055</v>
       </c>
       <c r="E162" t="n">
-        <v>113507154</v>
+        <v>113526453</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>50586</v>
+        <v>50587</v>
       </c>
       <c r="D164" t="n">
         <v>11057</v>
       </c>
       <c r="E164" t="n">
-        <v>168946548</v>
+        <v>168948911</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285125</v>
+        <v>285127</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1213841326</v>
+        <v>1213860768</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562674</v>
+        <v>562677</v>
       </c>
       <c r="D169" t="n">
         <v>60959</v>
       </c>
       <c r="E169" t="n">
-        <v>1286269320</v>
+        <v>1286291209</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367599</v>
+        <v>367601</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2848423734</v>
+        <v>2848430715</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357393</v>
+        <v>357394</v>
       </c>
       <c r="D174" t="n">
         <v>69791</v>
       </c>
       <c r="E174" t="n">
-        <v>1020291034</v>
+        <v>1020360606</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125703</v>
+        <v>125730</v>
       </c>
       <c r="D175" t="n">
         <v>18139</v>
       </c>
       <c r="E175" t="n">
-        <v>815960902</v>
+        <v>816239334</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235816</v>
+        <v>235817</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813759583</v>
+        <v>813761983</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141532</v>
+        <v>141533</v>
       </c>
       <c r="D180" t="n">
         <v>28891</v>
       </c>
       <c r="E180" t="n">
-        <v>341248758</v>
+        <v>341251278</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>21937</v>
+        <v>21938</v>
       </c>
       <c r="D186" t="n">
         <v>5228</v>
       </c>
       <c r="E186" t="n">
-        <v>40129490</v>
+        <v>40152988</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -13530,13 +13530,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>67244</v>
+        <v>67245</v>
       </c>
       <c r="D320" t="n">
         <v>10280</v>
       </c>
       <c r="E320" t="n">
-        <v>124560472</v>
+        <v>124563629</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278214</v>
+        <v>278215</v>
       </c>
       <c r="D10" t="n">
         <v>29589</v>
       </c>
       <c r="E10" t="n">
-        <v>1752681420</v>
+        <v>1752682990</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>26897</v>
+        <v>26898</v>
       </c>
       <c r="D107" t="n">
         <v>11151</v>
       </c>
       <c r="E107" t="n">
-        <v>36782912</v>
+        <v>36784412</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>101541</v>
+        <v>101542</v>
       </c>
       <c r="D167" t="n">
         <v>32176</v>
       </c>
       <c r="E167" t="n">
-        <v>195182764</v>
+        <v>195302952</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285127</v>
+        <v>285128</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1213860768</v>
+        <v>1213925022</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562677</v>
+        <v>562684</v>
       </c>
       <c r="D169" t="n">
         <v>60959</v>
       </c>
       <c r="E169" t="n">
-        <v>1286291209</v>
+        <v>1286541834</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367601</v>
+        <v>367606</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2848430715</v>
+        <v>2848481747</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115230</v>
+        <v>115231</v>
       </c>
       <c r="D171" t="n">
         <v>20265</v>
       </c>
       <c r="E171" t="n">
-        <v>449025067</v>
+        <v>449035067</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54396</v>
+        <v>54398</v>
       </c>
       <c r="D173" t="n">
         <v>11602</v>
       </c>
       <c r="E173" t="n">
-        <v>151948108</v>
+        <v>151968108</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357394</v>
+        <v>357395</v>
       </c>
       <c r="D174" t="n">
         <v>69791</v>
       </c>
       <c r="E174" t="n">
-        <v>1020360606</v>
+        <v>1020369106</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125730</v>
+        <v>125779</v>
       </c>
       <c r="D175" t="n">
         <v>18139</v>
       </c>
       <c r="E175" t="n">
-        <v>816239334</v>
+        <v>816694666</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96784</v>
+        <v>96785</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174817750</v>
+        <v>174820350</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235817</v>
+        <v>235818</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813761983</v>
+        <v>813768825</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141533</v>
+        <v>141534</v>
       </c>
       <c r="D180" t="n">
         <v>28891</v>
       </c>
       <c r="E180" t="n">
-        <v>341251278</v>
+        <v>341253628</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -9020,13 +9020,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>6430</v>
+        <v>6433</v>
       </c>
       <c r="D210" t="n">
         <v>979</v>
       </c>
       <c r="E210" t="n">
-        <v>19946922</v>
+        <v>19996314</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -11316,13 +11316,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>71667</v>
+        <v>71668</v>
       </c>
       <c r="D266" t="n">
         <v>9133</v>
       </c>
       <c r="E266" t="n">
-        <v>219458739</v>
+        <v>219463224</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -11849,13 +11849,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>28968</v>
+        <v>28969</v>
       </c>
       <c r="D279" t="n">
         <v>6571</v>
       </c>
       <c r="E279" t="n">
-        <v>57089102</v>
+        <v>57090504</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -13202,13 +13202,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>75104</v>
+        <v>75105</v>
       </c>
       <c r="D312" t="n">
         <v>9352</v>
       </c>
       <c r="E312" t="n">
-        <v>201398498</v>
+        <v>201408498</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -13243,13 +13243,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>220664</v>
+        <v>220665</v>
       </c>
       <c r="D313" t="n">
         <v>23419</v>
       </c>
       <c r="E313" t="n">
-        <v>1371206867</v>
+        <v>1371216867</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13407,13 +13407,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>103591</v>
+        <v>103596</v>
       </c>
       <c r="D317" t="n">
         <v>21218</v>
       </c>
       <c r="E317" t="n">
-        <v>303370381</v>
+        <v>303435659</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
